--- a/Unit-3/cities.xlsx
+++ b/Unit-3/cities.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="21015" windowHeight="9990"/>
@@ -10,9 +10,9 @@
     <sheet name="latlons_cities" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">latlons_cities!$A$1:$H$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">latlons_cities!$A$1:$F$32</definedName>
   </definedNames>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -79,9 +79,6 @@
     <t>Zurich</t>
   </si>
   <si>
-    <t>Oporto</t>
-  </si>
-  <si>
     <t>Geneva</t>
   </si>
   <si>
@@ -364,12 +361,6 @@
     <t>Slovakia</t>
   </si>
   <si>
-    <t xml:space="preserve"> United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Belgium</t>
-  </si>
-  <si>
     <t>Scotland</t>
   </si>
   <si>
@@ -380,13 +371,22 @@
   </si>
   <si>
     <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Belgium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,6 +932,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1010,6 +1015,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1044,6 +1050,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1219,14 +1226,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -1235,641 +1242,641 @@
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="1">
         <v>9126366</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
       </c>
       <c r="D3" s="1">
         <v>2175601</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
       </c>
       <c r="D4" s="1">
         <v>3348536</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
       </c>
       <c r="D5" s="1">
         <v>1620343</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
       </c>
       <c r="D6" s="1">
         <v>3669495</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
       </c>
       <c r="D7" s="1">
         <v>1404239</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
       </c>
       <c r="D8" s="1">
         <v>2856133</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
       </c>
       <c r="D9" s="1">
         <v>1324277</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
       </c>
       <c r="D10" s="1">
         <v>506654</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
       </c>
       <c r="D11" s="1">
         <v>1924158</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
       </c>
       <c r="D12" s="1">
         <v>873289</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
       </c>
       <c r="D13" s="1">
         <v>1211035</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
         <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
       </c>
       <c r="D14" s="1">
         <v>1899160</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
       </c>
       <c r="D15" s="1">
         <v>1558395</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
       </c>
       <c r="D16" s="1">
         <v>515695</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
         <v>61</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
       </c>
       <c r="D17" s="1">
         <v>974073</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
         <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>64</v>
       </c>
       <c r="D18" s="1">
         <v>1752286</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
         <v>65</v>
-      </c>
-      <c r="C19" t="s">
-        <v>66</v>
       </c>
       <c r="D19" s="1">
         <v>1793579</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
         <v>67</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
       </c>
       <c r="D20" s="1">
         <v>554554</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
         <v>69</v>
-      </c>
-      <c r="C21" t="s">
-        <v>70</v>
       </c>
       <c r="D21" s="1">
         <v>794128</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
         <v>71</v>
-      </c>
-      <c r="C22" t="s">
-        <v>72</v>
       </c>
       <c r="D22" s="1">
         <v>664046</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
         <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>74</v>
       </c>
       <c r="D23" s="1">
         <v>488100</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
         <v>75</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
       </c>
       <c r="D24" s="1">
         <v>428737</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
         <v>77</v>
-      </c>
-      <c r="C25" t="s">
-        <v>78</v>
       </c>
       <c r="D25" s="1">
         <v>231962</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
         <v>79</v>
-      </c>
-      <c r="C26" t="s">
-        <v>80</v>
       </c>
       <c r="D26" s="1">
         <v>201818</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
         <v>81</v>
-      </c>
-      <c r="C27" t="s">
-        <v>82</v>
       </c>
       <c r="D27" s="1">
         <v>779115</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
         <v>83</v>
-      </c>
-      <c r="C28" t="s">
-        <v>84</v>
       </c>
       <c r="D28" s="1">
         <v>697010</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
         <v>85</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
       </c>
       <c r="D29" s="1">
         <v>657674</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
         <v>87</v>
-      </c>
-      <c r="C30" t="s">
-        <v>88</v>
       </c>
       <c r="D30" s="1">
         <v>432864</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
         <v>89</v>
-      </c>
-      <c r="C31" t="s">
-        <v>90</v>
       </c>
       <c r="D31" s="1">
         <v>633622</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
         <v>91</v>
-      </c>
-      <c r="C32" t="s">
-        <v>92</v>
       </c>
       <c r="D32" s="1">
         <v>295504</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F32">
         <v>1</v>
